--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Tnfsf13-Tnfrsf1a.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Tnfsf13-Tnfrsf1a.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8685822327816</v>
+        <v>1.153770666666667</v>
       </c>
       <c r="H2">
-        <v>0.8685822327816</v>
+        <v>3.461312</v>
       </c>
       <c r="I2">
-        <v>0.1035210079210287</v>
+        <v>0.1294297218267158</v>
       </c>
       <c r="J2">
-        <v>0.1035210079210287</v>
+        <v>0.1294297218267158</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>46.9014718238501</v>
+        <v>47.53430066666667</v>
       </c>
       <c r="N2">
-        <v>46.9014718238501</v>
+        <v>142.602902</v>
       </c>
       <c r="O2">
-        <v>0.2310501711839757</v>
+        <v>0.2298097923041026</v>
       </c>
       <c r="P2">
-        <v>0.2310501711839757</v>
+        <v>0.2298097923041026</v>
       </c>
       <c r="Q2">
-        <v>40.73778511750302</v>
+        <v>54.84368176971377</v>
       </c>
       <c r="R2">
-        <v>40.73778511750302</v>
+        <v>493.5931359274239</v>
       </c>
       <c r="S2">
-        <v>0.02391854660129138</v>
+        <v>0.02974421749097534</v>
       </c>
       <c r="T2">
-        <v>0.02391854660129138</v>
+        <v>0.02974421749097533</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8685822327816</v>
+        <v>1.153770666666667</v>
       </c>
       <c r="H3">
-        <v>0.8685822327816</v>
+        <v>3.461312</v>
       </c>
       <c r="I3">
-        <v>0.1035210079210287</v>
+        <v>0.1294297218267158</v>
       </c>
       <c r="J3">
-        <v>0.1035210079210287</v>
+        <v>0.1294297218267158</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>51.8689398202768</v>
+        <v>51.976569</v>
       </c>
       <c r="N3">
-        <v>51.8689398202768</v>
+        <v>155.929707</v>
       </c>
       <c r="O3">
-        <v>0.2555213505797078</v>
+        <v>0.2512864259922955</v>
       </c>
       <c r="P3">
-        <v>0.2555213505797078</v>
+        <v>0.2512864259922956</v>
       </c>
       <c r="Q3">
-        <v>45.05243956111046</v>
+        <v>59.969040666176</v>
       </c>
       <c r="R3">
-        <v>45.05243956111046</v>
+        <v>539.7213659955839</v>
       </c>
       <c r="S3">
-        <v>0.02645182775735388</v>
+        <v>0.03252393221501242</v>
       </c>
       <c r="T3">
-        <v>0.02645182775735388</v>
+        <v>0.03252393221501242</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8685822327816</v>
+        <v>1.153770666666667</v>
       </c>
       <c r="H4">
-        <v>0.8685822327816</v>
+        <v>3.461312</v>
       </c>
       <c r="I4">
-        <v>0.1035210079210287</v>
+        <v>0.1294297218267158</v>
       </c>
       <c r="J4">
-        <v>0.1035210079210287</v>
+        <v>0.1294297218267158</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>43.6693854919082</v>
+        <v>43.88814033333333</v>
       </c>
       <c r="N4">
-        <v>43.6693854919082</v>
+        <v>131.664421</v>
       </c>
       <c r="O4">
-        <v>0.2151279821515877</v>
+        <v>0.2121820300953617</v>
       </c>
       <c r="P4">
-        <v>0.2151279821515877</v>
+        <v>0.2121820300953618</v>
       </c>
       <c r="Q4">
-        <v>37.93045235476203</v>
+        <v>50.63684893115021</v>
       </c>
       <c r="R4">
-        <v>37.93045235476203</v>
+        <v>455.731640380352</v>
       </c>
       <c r="S4">
-        <v>0.02227026554434942</v>
+        <v>0.02746266113187051</v>
       </c>
       <c r="T4">
-        <v>0.02227026554434942</v>
+        <v>0.02746266113187051</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8685822327816</v>
+        <v>1.153770666666667</v>
       </c>
       <c r="H5">
-        <v>0.8685822327816</v>
+        <v>3.461312</v>
       </c>
       <c r="I5">
-        <v>0.1035210079210287</v>
+        <v>0.1294297218267158</v>
       </c>
       <c r="J5">
-        <v>0.1035210079210287</v>
+        <v>0.1294297218267158</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>52.358197119153</v>
+        <v>54.95204066666667</v>
       </c>
       <c r="N5">
-        <v>52.358197119153</v>
+        <v>164.856122</v>
       </c>
       <c r="O5">
-        <v>0.2579315730793964</v>
+        <v>0.2656716702502996</v>
       </c>
       <c r="P5">
-        <v>0.2579315730793964</v>
+        <v>0.2656716702502997</v>
       </c>
       <c r="Q5">
-        <v>45.47739975817304</v>
+        <v>63.40205259467377</v>
       </c>
       <c r="R5">
-        <v>45.47739975817304</v>
+        <v>570.6184733520639</v>
       </c>
       <c r="S5">
-        <v>0.02670133641983558</v>
+        <v>0.03438581037773526</v>
       </c>
       <c r="T5">
-        <v>0.02670133641983558</v>
+        <v>0.03438581037773526</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8685822327816</v>
+        <v>1.153770666666667</v>
       </c>
       <c r="H6">
-        <v>0.8685822327816</v>
+        <v>3.461312</v>
       </c>
       <c r="I6">
-        <v>0.1035210079210287</v>
+        <v>0.1294297218267158</v>
       </c>
       <c r="J6">
-        <v>0.1035210079210287</v>
+        <v>0.1294297218267158</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.194592088772611</v>
+        <v>8.490878</v>
       </c>
       <c r="N6">
-        <v>8.194592088772611</v>
+        <v>25.472634</v>
       </c>
       <c r="O6">
-        <v>0.04036892300533226</v>
+        <v>0.04105008135794053</v>
       </c>
       <c r="P6">
-        <v>0.04036892300533226</v>
+        <v>0.04105008135794054</v>
       </c>
       <c r="Q6">
-        <v>7.117677093200549</v>
+        <v>9.796525970645332</v>
       </c>
       <c r="R6">
-        <v>7.117677093200549</v>
+        <v>88.16873373580799</v>
       </c>
       <c r="S6">
-        <v>0.004179031598198398</v>
+        <v>0.005313100611122296</v>
       </c>
       <c r="T6">
-        <v>0.004179031598198398</v>
+        <v>0.005313100611122296</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.495387593726878</v>
+        <v>0.560947</v>
       </c>
       <c r="H7">
-        <v>0.495387593726878</v>
+        <v>1.682841</v>
       </c>
       <c r="I7">
-        <v>0.05904221969858587</v>
+        <v>0.06292690243138796</v>
       </c>
       <c r="J7">
-        <v>0.05904221969858587</v>
+        <v>0.06292690243138795</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>46.9014718238501</v>
+        <v>47.53430066666667</v>
       </c>
       <c r="N7">
-        <v>46.9014718238501</v>
+        <v>142.602902</v>
       </c>
       <c r="O7">
-        <v>0.2310501711839757</v>
+        <v>0.2298097923041026</v>
       </c>
       <c r="P7">
-        <v>0.2310501711839757</v>
+        <v>0.2298097923041026</v>
       </c>
       <c r="Q7">
-        <v>23.23440726906607</v>
+        <v>26.66422335606466</v>
       </c>
       <c r="R7">
-        <v>23.23440726906607</v>
+        <v>239.978010204582</v>
       </c>
       <c r="S7">
-        <v>0.01364171496844017</v>
+        <v>0.01446121837809779</v>
       </c>
       <c r="T7">
-        <v>0.01364171496844017</v>
+        <v>0.01446121837809779</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.495387593726878</v>
+        <v>0.560947</v>
       </c>
       <c r="H8">
-        <v>0.495387593726878</v>
+        <v>1.682841</v>
       </c>
       <c r="I8">
-        <v>0.05904221969858587</v>
+        <v>0.06292690243138796</v>
       </c>
       <c r="J8">
-        <v>0.05904221969858587</v>
+        <v>0.06292690243138795</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>51.8689398202768</v>
+        <v>51.976569</v>
       </c>
       <c r="N8">
-        <v>51.8689398202768</v>
+        <v>155.929707</v>
       </c>
       <c r="O8">
-        <v>0.2555213505797078</v>
+        <v>0.2512864259922955</v>
       </c>
       <c r="P8">
-        <v>0.2555213505797078</v>
+        <v>0.2512864259922956</v>
       </c>
       <c r="Q8">
-        <v>25.69522928673117</v>
+        <v>29.156100450843</v>
       </c>
       <c r="R8">
-        <v>25.69522928673117</v>
+        <v>262.404904057587</v>
       </c>
       <c r="S8">
-        <v>0.01508654771860649</v>
+        <v>0.01581267641074937</v>
       </c>
       <c r="T8">
-        <v>0.01508654771860649</v>
+        <v>0.01581267641074937</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.495387593726878</v>
+        <v>0.560947</v>
       </c>
       <c r="H9">
-        <v>0.495387593726878</v>
+        <v>1.682841</v>
       </c>
       <c r="I9">
-        <v>0.05904221969858587</v>
+        <v>0.06292690243138796</v>
       </c>
       <c r="J9">
-        <v>0.05904221969858587</v>
+        <v>0.06292690243138795</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>43.6693854919082</v>
+        <v>43.88814033333333</v>
       </c>
       <c r="N9">
-        <v>43.6693854919082</v>
+        <v>131.664421</v>
       </c>
       <c r="O9">
-        <v>0.2151279821515877</v>
+        <v>0.2121820300953617</v>
       </c>
       <c r="P9">
-        <v>0.2151279821515877</v>
+        <v>0.2121820300953618</v>
       </c>
       <c r="Q9">
-        <v>21.63327179836784</v>
+        <v>24.61892065556233</v>
       </c>
       <c r="R9">
-        <v>21.63327179836784</v>
+        <v>221.570285900061</v>
       </c>
       <c r="S9">
-        <v>0.0127016335855075</v>
+        <v>0.01335195790550465</v>
       </c>
       <c r="T9">
-        <v>0.0127016335855075</v>
+        <v>0.01335195790550465</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.495387593726878</v>
+        <v>0.560947</v>
       </c>
       <c r="H10">
-        <v>0.495387593726878</v>
+        <v>1.682841</v>
       </c>
       <c r="I10">
-        <v>0.05904221969858587</v>
+        <v>0.06292690243138796</v>
       </c>
       <c r="J10">
-        <v>0.05904221969858587</v>
+        <v>0.06292690243138795</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>52.358197119153</v>
+        <v>54.95204066666667</v>
       </c>
       <c r="N10">
-        <v>52.358197119153</v>
+        <v>164.856122</v>
       </c>
       <c r="O10">
-        <v>0.2579315730793964</v>
+        <v>0.2656716702502996</v>
       </c>
       <c r="P10">
-        <v>0.2579315730793964</v>
+        <v>0.2656716702502997</v>
       </c>
       <c r="Q10">
-        <v>25.93760128273476</v>
+        <v>30.82518235584467</v>
       </c>
       <c r="R10">
-        <v>25.93760128273476</v>
+        <v>277.426641202602</v>
       </c>
       <c r="S10">
-        <v>0.01522885260495558</v>
+        <v>0.01671789527262448</v>
       </c>
       <c r="T10">
-        <v>0.01522885260495558</v>
+        <v>0.01671789527262448</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.495387593726878</v>
+        <v>0.560947</v>
       </c>
       <c r="H11">
-        <v>0.495387593726878</v>
+        <v>1.682841</v>
       </c>
       <c r="I11">
-        <v>0.05904221969858587</v>
+        <v>0.06292690243138796</v>
       </c>
       <c r="J11">
-        <v>0.05904221969858587</v>
+        <v>0.06292690243138795</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.194592088772611</v>
+        <v>8.490878</v>
       </c>
       <c r="N11">
-        <v>8.194592088772611</v>
+        <v>25.472634</v>
       </c>
       <c r="O11">
-        <v>0.04036892300533226</v>
+        <v>0.04105008135794053</v>
       </c>
       <c r="P11">
-        <v>0.04036892300533226</v>
+        <v>0.04105008135794054</v>
       </c>
       <c r="Q11">
-        <v>4.059499256430374</v>
+        <v>4.762932541466</v>
       </c>
       <c r="R11">
-        <v>4.059499256430374</v>
+        <v>42.866392873194</v>
       </c>
       <c r="S11">
-        <v>0.002383470821076125</v>
+        <v>0.002583154464411662</v>
       </c>
       <c r="T11">
-        <v>0.002383470821076125</v>
+        <v>0.002583154464411662</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.7870022076297</v>
+        <v>3.837574333333334</v>
       </c>
       <c r="H12">
-        <v>3.7870022076297</v>
+        <v>11.512723</v>
       </c>
       <c r="I12">
-        <v>0.4513496485848129</v>
+        <v>0.4304981854736105</v>
       </c>
       <c r="J12">
-        <v>0.4513496485848129</v>
+        <v>0.4304981854736104</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>46.9014718238501</v>
+        <v>47.53430066666667</v>
       </c>
       <c r="N12">
-        <v>46.9014718238501</v>
+        <v>142.602902</v>
       </c>
       <c r="O12">
-        <v>0.2310501711839757</v>
+        <v>0.2298097923041026</v>
       </c>
       <c r="P12">
-        <v>0.2310501711839757</v>
+        <v>0.2298097923041026</v>
       </c>
       <c r="Q12">
-        <v>177.6159773380025</v>
+        <v>182.4164121913496</v>
       </c>
       <c r="R12">
-        <v>177.6159773380025</v>
+        <v>1641.747709722146</v>
       </c>
       <c r="S12">
-        <v>0.1042844135693483</v>
+        <v>0.09893269859098346</v>
       </c>
       <c r="T12">
-        <v>0.1042844135693483</v>
+        <v>0.09893269859098344</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.7870022076297</v>
+        <v>3.837574333333334</v>
       </c>
       <c r="H13">
-        <v>3.7870022076297</v>
+        <v>11.512723</v>
       </c>
       <c r="I13">
-        <v>0.4513496485848129</v>
+        <v>0.4304981854736105</v>
       </c>
       <c r="J13">
-        <v>0.4513496485848129</v>
+        <v>0.4304981854736104</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>51.8689398202768</v>
+        <v>51.976569</v>
       </c>
       <c r="N13">
-        <v>51.8689398202768</v>
+        <v>155.929707</v>
       </c>
       <c r="O13">
-        <v>0.2555213505797078</v>
+        <v>0.2512864259922955</v>
       </c>
       <c r="P13">
-        <v>0.2555213505797078</v>
+        <v>0.2512864259922956</v>
       </c>
       <c r="Q13">
-        <v>196.4277896068003</v>
+        <v>199.4639471291291</v>
       </c>
       <c r="R13">
-        <v>196.4277896068003</v>
+        <v>1795.175524162161</v>
       </c>
       <c r="S13">
-        <v>0.1153294717900679</v>
+        <v>0.1081783504238319</v>
       </c>
       <c r="T13">
-        <v>0.1153294717900679</v>
+        <v>0.1081783504238319</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.7870022076297</v>
+        <v>3.837574333333334</v>
       </c>
       <c r="H14">
-        <v>3.7870022076297</v>
+        <v>11.512723</v>
       </c>
       <c r="I14">
-        <v>0.4513496485848129</v>
+        <v>0.4304981854736105</v>
       </c>
       <c r="J14">
-        <v>0.4513496485848129</v>
+        <v>0.4304981854736104</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>43.6693854919082</v>
+        <v>43.88814033333333</v>
       </c>
       <c r="N14">
-        <v>43.6693854919082</v>
+        <v>131.664421</v>
       </c>
       <c r="O14">
-        <v>0.2151279821515877</v>
+        <v>0.2121820300953617</v>
       </c>
       <c r="P14">
-        <v>0.2151279821515877</v>
+        <v>0.2121820300953618</v>
       </c>
       <c r="Q14">
-        <v>165.3760592636887</v>
+        <v>168.4240008809315</v>
       </c>
       <c r="R14">
-        <v>165.3760592636887</v>
+        <v>1515.816007928383</v>
       </c>
       <c r="S14">
-        <v>0.09709793914487899</v>
+        <v>0.09134397894616024</v>
       </c>
       <c r="T14">
-        <v>0.09709793914487899</v>
+        <v>0.09134397894616024</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.7870022076297</v>
+        <v>3.837574333333334</v>
       </c>
       <c r="H15">
-        <v>3.7870022076297</v>
+        <v>11.512723</v>
       </c>
       <c r="I15">
-        <v>0.4513496485848129</v>
+        <v>0.4304981854736105</v>
       </c>
       <c r="J15">
-        <v>0.4513496485848129</v>
+        <v>0.4304981854736104</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>52.358197119153</v>
+        <v>54.95204066666667</v>
       </c>
       <c r="N15">
-        <v>52.358197119153</v>
+        <v>164.856122</v>
       </c>
       <c r="O15">
-        <v>0.2579315730793964</v>
+        <v>0.2656716702502996</v>
       </c>
       <c r="P15">
-        <v>0.2579315730793964</v>
+        <v>0.2656716702502997</v>
       </c>
       <c r="Q15">
-        <v>198.2806080777434</v>
+        <v>210.8825408266896</v>
       </c>
       <c r="R15">
-        <v>198.2806080777434</v>
+        <v>1897.942867440206</v>
       </c>
       <c r="S15">
-        <v>0.1164173248683136</v>
+        <v>0.1143711719744974</v>
       </c>
       <c r="T15">
-        <v>0.1164173248683136</v>
+        <v>0.1143711719744974</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.7870022076297</v>
+        <v>3.837574333333334</v>
       </c>
       <c r="H16">
-        <v>3.7870022076297</v>
+        <v>11.512723</v>
       </c>
       <c r="I16">
-        <v>0.4513496485848129</v>
+        <v>0.4304981854736105</v>
       </c>
       <c r="J16">
-        <v>0.4513496485848129</v>
+        <v>0.4304981854736104</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.194592088772611</v>
+        <v>8.490878</v>
       </c>
       <c r="N16">
-        <v>8.194592088772611</v>
+        <v>25.472634</v>
       </c>
       <c r="O16">
-        <v>0.04036892300533226</v>
+        <v>0.04105008135794053</v>
       </c>
       <c r="P16">
-        <v>0.04036892300533226</v>
+        <v>0.04105008135794054</v>
       </c>
       <c r="Q16">
-        <v>31.03293833080675</v>
+        <v>32.58437548026468</v>
       </c>
       <c r="R16">
-        <v>31.03293833080675</v>
+        <v>293.259379322382</v>
       </c>
       <c r="S16">
-        <v>0.01822049921220408</v>
+        <v>0.01767198553813748</v>
       </c>
       <c r="T16">
-        <v>0.01822049921220408</v>
+        <v>0.01767198553813748</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.07857235794301</v>
+        <v>3.179188666666667</v>
       </c>
       <c r="H17">
-        <v>3.07857235794301</v>
+        <v>9.537566</v>
       </c>
       <c r="I17">
-        <v>0.3669162244217962</v>
+        <v>0.3566406363494371</v>
       </c>
       <c r="J17">
-        <v>0.3669162244217962</v>
+        <v>0.356640636349437</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>46.9014718238501</v>
+        <v>47.53430066666667</v>
       </c>
       <c r="N17">
-        <v>46.9014718238501</v>
+        <v>142.602902</v>
       </c>
       <c r="O17">
-        <v>0.2310501711839757</v>
+        <v>0.2298097923041026</v>
       </c>
       <c r="P17">
-        <v>0.2310501711839757</v>
+        <v>0.2298097923041026</v>
       </c>
       <c r="Q17">
-        <v>144.3895747037479</v>
+        <v>151.1205099573924</v>
       </c>
       <c r="R17">
-        <v>144.3895747037479</v>
+        <v>1360.084589616532</v>
       </c>
       <c r="S17">
-        <v>0.08477605646283405</v>
+        <v>0.08195951056666712</v>
       </c>
       <c r="T17">
-        <v>0.08477605646283405</v>
+        <v>0.0819595105666671</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.07857235794301</v>
+        <v>3.179188666666667</v>
       </c>
       <c r="H18">
-        <v>3.07857235794301</v>
+        <v>9.537566</v>
       </c>
       <c r="I18">
-        <v>0.3669162244217962</v>
+        <v>0.3566406363494371</v>
       </c>
       <c r="J18">
-        <v>0.3669162244217962</v>
+        <v>0.356640636349437</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>51.8689398202768</v>
+        <v>51.976569</v>
       </c>
       <c r="N18">
-        <v>51.8689398202768</v>
+        <v>155.929707</v>
       </c>
       <c r="O18">
-        <v>0.2555213505797078</v>
+        <v>0.2512864259922955</v>
       </c>
       <c r="P18">
-        <v>0.2555213505797078</v>
+        <v>0.2512864259922956</v>
       </c>
       <c r="Q18">
-        <v>159.6822843665136</v>
+        <v>165.243319097018</v>
       </c>
       <c r="R18">
-        <v>159.6822843665136</v>
+        <v>1487.189871873162</v>
       </c>
       <c r="S18">
-        <v>0.09375492921386452</v>
+        <v>0.089618950871868</v>
       </c>
       <c r="T18">
-        <v>0.09375492921386452</v>
+        <v>0.08961895087186801</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.07857235794301</v>
+        <v>3.179188666666667</v>
       </c>
       <c r="H19">
-        <v>3.07857235794301</v>
+        <v>9.537566</v>
       </c>
       <c r="I19">
-        <v>0.3669162244217962</v>
+        <v>0.3566406363494371</v>
       </c>
       <c r="J19">
-        <v>0.3669162244217962</v>
+        <v>0.356640636349437</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>43.6693854919082</v>
+        <v>43.88814033333333</v>
       </c>
       <c r="N19">
-        <v>43.6693854919082</v>
+        <v>131.664421</v>
       </c>
       <c r="O19">
-        <v>0.2151279821515877</v>
+        <v>0.2121820300953617</v>
       </c>
       <c r="P19">
-        <v>0.2151279821515877</v>
+        <v>0.2121820300953618</v>
       </c>
       <c r="Q19">
-        <v>134.4393630637461</v>
+        <v>139.5286783488096</v>
       </c>
       <c r="R19">
-        <v>134.4393630637461</v>
+        <v>1255.758105139286</v>
       </c>
       <c r="S19">
-        <v>0.0789339469785401</v>
+        <v>0.07567273423512522</v>
       </c>
       <c r="T19">
-        <v>0.0789339469785401</v>
+        <v>0.07567273423512522</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.07857235794301</v>
+        <v>3.179188666666667</v>
       </c>
       <c r="H20">
-        <v>3.07857235794301</v>
+        <v>9.537566</v>
       </c>
       <c r="I20">
-        <v>0.3669162244217962</v>
+        <v>0.3566406363494371</v>
       </c>
       <c r="J20">
-        <v>0.3669162244217962</v>
+        <v>0.356640636349437</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>52.358197119153</v>
+        <v>54.95204066666667</v>
       </c>
       <c r="N20">
-        <v>52.358197119153</v>
+        <v>164.856122</v>
       </c>
       <c r="O20">
-        <v>0.2579315730793964</v>
+        <v>0.2656716702502996</v>
       </c>
       <c r="P20">
-        <v>0.2579315730793964</v>
+        <v>0.2656716702502997</v>
       </c>
       <c r="Q20">
-        <v>161.1884983627558</v>
+        <v>174.7029048976725</v>
       </c>
       <c r="R20">
-        <v>161.1884983627558</v>
+        <v>1572.326144079052</v>
       </c>
       <c r="S20">
-        <v>0.09463927895346673</v>
+        <v>0.09474931353808468</v>
       </c>
       <c r="T20">
-        <v>0.09463927895346673</v>
+        <v>0.09474931353808469</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.07857235794301</v>
+        <v>3.179188666666667</v>
       </c>
       <c r="H21">
-        <v>3.07857235794301</v>
+        <v>9.537566</v>
       </c>
       <c r="I21">
-        <v>0.3669162244217962</v>
+        <v>0.3566406363494371</v>
       </c>
       <c r="J21">
-        <v>0.3669162244217962</v>
+        <v>0.356640636349437</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.194592088772611</v>
+        <v>8.490878</v>
       </c>
       <c r="N21">
-        <v>8.194592088772611</v>
+        <v>25.472634</v>
       </c>
       <c r="O21">
-        <v>0.04036892300533226</v>
+        <v>0.04105008135794053</v>
       </c>
       <c r="P21">
-        <v>0.04036892300533226</v>
+        <v>0.04105008135794054</v>
       </c>
       <c r="Q21">
-        <v>25.22764468911383</v>
+        <v>26.99410310764933</v>
       </c>
       <c r="R21">
-        <v>25.22764468911383</v>
+        <v>242.946927968844</v>
       </c>
       <c r="S21">
-        <v>0.0148120128130907</v>
+        <v>0.01464012713769208</v>
       </c>
       <c r="T21">
-        <v>0.0148120128130907</v>
+        <v>0.01464012713769208</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.160851434089676</v>
+        <v>0.182783</v>
       </c>
       <c r="H22">
-        <v>0.160851434089676</v>
+        <v>0.548349</v>
       </c>
       <c r="I22">
-        <v>0.0191708993737765</v>
+        <v>0.02050455391884863</v>
       </c>
       <c r="J22">
-        <v>0.0191708993737765</v>
+        <v>0.02050455391884863</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>46.9014718238501</v>
+        <v>47.53430066666667</v>
       </c>
       <c r="N22">
-        <v>46.9014718238501</v>
+        <v>142.602902</v>
       </c>
       <c r="O22">
-        <v>0.2310501711839757</v>
+        <v>0.2298097923041026</v>
       </c>
       <c r="P22">
-        <v>0.2310501711839757</v>
+        <v>0.2298097923041026</v>
       </c>
       <c r="Q22">
-        <v>7.544169003782821</v>
+        <v>8.688462078755334</v>
       </c>
       <c r="R22">
-        <v>7.544169003782821</v>
+        <v>78.196158708798</v>
       </c>
       <c r="S22">
-        <v>0.004429439582061834</v>
+        <v>0.004712147277378877</v>
       </c>
       <c r="T22">
-        <v>0.004429439582061834</v>
+        <v>0.004712147277378877</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.160851434089676</v>
+        <v>0.182783</v>
       </c>
       <c r="H23">
-        <v>0.160851434089676</v>
+        <v>0.548349</v>
       </c>
       <c r="I23">
-        <v>0.0191708993737765</v>
+        <v>0.02050455391884863</v>
       </c>
       <c r="J23">
-        <v>0.0191708993737765</v>
+        <v>0.02050455391884863</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>51.8689398202768</v>
+        <v>51.976569</v>
       </c>
       <c r="N23">
-        <v>51.8689398202768</v>
+        <v>155.929707</v>
       </c>
       <c r="O23">
-        <v>0.2555213505797078</v>
+        <v>0.2512864259922955</v>
       </c>
       <c r="P23">
-        <v>0.2555213505797078</v>
+        <v>0.2512864259922956</v>
       </c>
       <c r="Q23">
-        <v>8.343193354802624</v>
+        <v>9.500433211527001</v>
       </c>
       <c r="R23">
-        <v>8.343193354802624</v>
+        <v>85.50389890374301</v>
       </c>
       <c r="S23">
-        <v>0.004898574099815047</v>
+        <v>0.00515251607083379</v>
       </c>
       <c r="T23">
-        <v>0.004898574099815047</v>
+        <v>0.00515251607083379</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.160851434089676</v>
+        <v>0.182783</v>
       </c>
       <c r="H24">
-        <v>0.160851434089676</v>
+        <v>0.548349</v>
       </c>
       <c r="I24">
-        <v>0.0191708993737765</v>
+        <v>0.02050455391884863</v>
       </c>
       <c r="J24">
-        <v>0.0191708993737765</v>
+        <v>0.02050455391884863</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>43.6693854919082</v>
+        <v>43.88814033333333</v>
       </c>
       <c r="N24">
-        <v>43.6693854919082</v>
+        <v>131.664421</v>
       </c>
       <c r="O24">
-        <v>0.2151279821515877</v>
+        <v>0.2121820300953617</v>
       </c>
       <c r="P24">
-        <v>0.2151279821515877</v>
+        <v>0.2121820300953618</v>
       </c>
       <c r="Q24">
-        <v>7.024283282188326</v>
+        <v>8.022005954547666</v>
       </c>
       <c r="R24">
-        <v>7.024283282188326</v>
+        <v>72.19805359092899</v>
       </c>
       <c r="S24">
-        <v>0.004124196898311675</v>
+        <v>0.004350697876701108</v>
       </c>
       <c r="T24">
-        <v>0.004124196898311675</v>
+        <v>0.004350697876701108</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.160851434089676</v>
+        <v>0.182783</v>
       </c>
       <c r="H25">
-        <v>0.160851434089676</v>
+        <v>0.548349</v>
       </c>
       <c r="I25">
-        <v>0.0191708993737765</v>
+        <v>0.02050455391884863</v>
       </c>
       <c r="J25">
-        <v>0.0191708993737765</v>
+        <v>0.02050455391884863</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>52.358197119153</v>
+        <v>54.95204066666667</v>
       </c>
       <c r="N25">
-        <v>52.358197119153</v>
+        <v>164.856122</v>
       </c>
       <c r="O25">
-        <v>0.2579315730793964</v>
+        <v>0.2656716702502996</v>
       </c>
       <c r="P25">
-        <v>0.2579315730793964</v>
+        <v>0.2656716702502997</v>
       </c>
       <c r="Q25">
-        <v>8.421891092965703</v>
+        <v>10.04429884917533</v>
       </c>
       <c r="R25">
-        <v>8.421891092965703</v>
+        <v>90.39868964257799</v>
       </c>
       <c r="S25">
-        <v>0.00494478023282499</v>
+        <v>0.005447479087357844</v>
       </c>
       <c r="T25">
-        <v>0.00494478023282499</v>
+        <v>0.005447479087357844</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.160851434089676</v>
+        <v>0.182783</v>
       </c>
       <c r="H26">
-        <v>0.160851434089676</v>
+        <v>0.548349</v>
       </c>
       <c r="I26">
-        <v>0.0191708993737765</v>
+        <v>0.02050455391884863</v>
       </c>
       <c r="J26">
-        <v>0.0191708993737765</v>
+        <v>0.02050455391884863</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.194592088772611</v>
+        <v>8.490878</v>
       </c>
       <c r="N26">
-        <v>8.194592088772611</v>
+        <v>25.472634</v>
       </c>
       <c r="O26">
-        <v>0.04036892300533226</v>
+        <v>0.04105008135794053</v>
       </c>
       <c r="P26">
-        <v>0.04036892300533226</v>
+        <v>0.04105008135794054</v>
       </c>
       <c r="Q26">
-        <v>1.318111889258988</v>
+        <v>1.551988153474</v>
       </c>
       <c r="R26">
-        <v>1.318111889258988</v>
+        <v>13.967893381266</v>
       </c>
       <c r="S26">
-        <v>0.0007739085607629561</v>
+        <v>0.0008417136065770149</v>
       </c>
       <c r="T26">
-        <v>0.0007739085607629561</v>
+        <v>0.0008417136065770149</v>
       </c>
     </row>
   </sheetData>
